--- a/biology/Biologie cellulaire et moléculaire/ZEB1/ZEB1.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/ZEB1/ZEB1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">ZEB1 (pour « Zinc finger E-box-binding homeobox 1 »), ou TCF8, est une protéine de type facteur de transcription contenant un homéodomaine. Son gène est ZEB1 porté par le chromosome 10 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il favorise la cancérogenèse et la progression des cancers[5]. Il intervient dans la différenciation des cellules musculaires lisses[6].
-Il augmente l'expression du GUCY1A3 sous-unité de la guanylate cyclase et donc l'activité de cette dernière[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il favorise la cancérogenèse et la progression des cancers. Il intervient dans la différenciation des cellules musculaires lisses.
+Il augmente l'expression du GUCY1A3 sous-unité de la guanylate cyclase et donc l'activité de cette dernière.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mutations du gène causent plusieurs maladies : la dystrophie cornéenne postérieure polymorphe[8] ou la dystrophie cornéenne de Fuchs dans sa forme tardive[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mutations du gène causent plusieurs maladies : la dystrophie cornéenne postérieure polymorphe ou la dystrophie cornéenne de Fuchs dans sa forme tardive.
 </t>
         </is>
       </c>
